--- a/DataRepo/data/tests/small_obob_lcms_metadata/glucose.xlsx
+++ b/DataRepo/data/tests/small_obob_lcms_metadata/glucose.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/example_data/small_dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/small_obob_lcms_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{82879DDB-6230-D041-9F6D-E1446B7CC160}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{82876DCD-3272-7C48-B26D-D545BEA4E257}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" xr2:uid="{6E9FE3E2-ABCE-6444-BFBF-2517155B6381}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>BAT-xz971</t>
   </si>
@@ -111,10 +111,16 @@
     <t>2021-04-29</t>
   </si>
   <si>
-    <t>default instrument</t>
-  </si>
-  <si>
     <t>Michael Neinast</t>
+  </si>
+  <si>
+    <t>polarity</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>unknown</t>
   </si>
 </sst>
 </file>
@@ -467,9 +473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007E7542-13DA-C745-8362-DDC079F6D286}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -485,7 +493,7 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -516,8 +524,11 @@
       <c r="J1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -528,10 +539,10 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>27</v>
@@ -542,8 +553,11 @@
       <c r="I2">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -554,10 +568,10 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>27</v>
@@ -568,8 +582,11 @@
       <c r="I3">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -578,7 +595,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -587,7 +604,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -596,7 +613,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -605,7 +622,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -614,7 +631,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -623,7 +640,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -632,7 +649,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -641,7 +658,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -650,7 +667,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -659,7 +676,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -668,7 +685,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -677,7 +694,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>

--- a/DataRepo/data/tests/small_obob_lcms_metadata/glucose.xlsx
+++ b/DataRepo/data/tests/small_obob_lcms_metadata/glucose.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/small_obob_lcms_metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob_lcms_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{82876DCD-3272-7C48-B26D-D545BEA4E257}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F964E207-2226-0F43-8937-B1B040F5AA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" xr2:uid="{6E9FE3E2-ABCE-6444-BFBF-2517155B6381}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>BAT-xz971</t>
   </si>
@@ -121,14 +121,28 @@
   </si>
   <si>
     <t>unknown</t>
+  </si>
+  <si>
+    <t>mz min</t>
+  </si>
+  <si>
+    <t>mz max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -156,9 +170,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,62 +488,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007E7542-13DA-C745-8362-DDC079F6D286}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -557,7 +579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -586,7 +608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -595,7 +617,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -604,7 +626,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -613,7 +635,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -622,7 +644,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -631,7 +653,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -640,7 +662,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -649,7 +671,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -658,7 +680,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -667,7 +689,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -676,7 +698,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -685,7 +707,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -694,7 +716,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>

--- a/DataRepo/data/tests/small_obob_lcms_metadata/glucose.xlsx
+++ b/DataRepo/data/tests/small_obob_lcms_metadata/glucose.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob_lcms_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F964E207-2226-0F43-8937-B1B040F5AA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69CBF6A-3E60-3A4F-AF34-8A2A918E9AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" xr2:uid="{6E9FE3E2-ABCE-6444-BFBF-2517155B6381}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>BAT-xz971</t>
   </si>
@@ -114,19 +114,7 @@
     <t>Michael Neinast</t>
   </si>
   <si>
-    <t>polarity</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>unknown</t>
-  </si>
-  <si>
-    <t>mz min</t>
-  </si>
-  <si>
-    <t>mz max</t>
   </si>
 </sst>
 </file>
@@ -192,9 +180,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +220,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -338,7 +326,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,7 +468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -488,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007E7542-13DA-C745-8362-DDC079F6D286}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,12 +492,9 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -540,17 +525,8 @@
       <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -561,7 +537,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -575,11 +551,8 @@
       <c r="I2">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -590,7 +563,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -604,11 +577,8 @@
       <c r="I3">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -617,7 +587,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -626,7 +596,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -635,7 +605,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -644,7 +614,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -653,7 +623,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -662,7 +632,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -671,7 +641,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -680,7 +650,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -689,7 +659,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -698,7 +668,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -707,7 +677,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -716,7 +686,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
